--- a/User-Story/User story (DB).xlsx
+++ b/User-Story/User story (DB).xlsx
@@ -101,7 +101,7 @@
     <t>En tant qu'utilisateur je veux ajouter un bénéficiaire pour effectuer un virement vers un nouveau compte</t>
   </si>
   <si>
-    <t>Nom + IBAN valides → bénéficiaire ajouté</t>
+    <t>Nom + Prénom + Type +RIB valides → bénéficiaire ajouté</t>
   </si>
   <si>
     <t>US07</t>
@@ -1461,8 +1461,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1472,7 +1472,7 @@
     <col min="3" max="3" width="95.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="44.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="47.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="2.88888888888889" customWidth="1"/>
     <col min="8" max="8" width="2.22222222222222" customWidth="1"/>
     <col min="9" max="9" width="8.88888888888889" customWidth="1"/>
